--- a/xlsx/档案管理学_intext.xlsx
+++ b/xlsx/档案管理学_intext.xlsx
@@ -77,25 +77,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%BC%A2</t>
   </si>
   <si>
-    <t>西漢</t>
+    <t>西汉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>長史</t>
+    <t>长史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%BC%A2</t>
   </si>
   <si>
-    <t>東漢</t>
+    <t>东汉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%9A%E6%9B%B8</t>
   </si>
   <si>
-    <t>尚書</t>
+    <t>尚书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E6%B8%A0%E9%98%81</t>
@@ -107,25 +107,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%AD%E5%8F%B0</t>
   </si>
   <si>
-    <t>蘭台</t>
+    <t>兰台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%8F%E6%99%89%E5%8D%97%E5%8C%97%E6%9C%9D</t>
   </si>
   <si>
-    <t>魏晉南北朝</t>
+    <t>魏晋南北朝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%9B%B8</t>
   </si>
   <si>
-    <t>中書</t>
+    <t>中书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E6%9B%B8</t>
   </si>
   <si>
-    <t>秘書</t>
+    <t>秘书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9A%8B%E5%94%90</t>
@@ -149,19 +149,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E9%A4%A8</t>
   </si>
   <si>
-    <t>史館</t>
+    <t>史馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%AD%E6%96%87%E9%A4%A8</t>
   </si>
   <si>
-    <t>昭文館</t>
+    <t>昭文馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E8%B3%A2%E9%99%A2</t>
   </si>
   <si>
-    <t>集賢院</t>
+    <t>集贤院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%83</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%A9%9F%E9%97%9C</t>
   </si>
   <si>
-    <t>行政機關</t>
+    <t>行政机关</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BE%E4%B9%A6%E9%A6%86%E5%AD%A6</t>
